--- a/artfynd/A 9053-2020.xlsx
+++ b/artfynd/A 9053-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY52"/>
+  <dimension ref="A1:AY62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6602,6 +6602,1036 @@
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112230608</v>
+      </c>
+      <c r="B53" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>571931</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6697694</v>
+      </c>
+      <c r="S53" t="n">
+        <v>15</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112230611</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4711</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>100299</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Cacotemnus thomsoni</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Kraatz, 1881)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>571834</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6697641</v>
+      </c>
+      <c r="S54" t="n">
+        <v>15</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112230613</v>
+      </c>
+      <c r="B55" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>571799</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6697620</v>
+      </c>
+      <c r="S55" t="n">
+        <v>15</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112230606</v>
+      </c>
+      <c r="B56" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>571961</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6697705</v>
+      </c>
+      <c r="S56" t="n">
+        <v>15</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112230614</v>
+      </c>
+      <c r="B57" t="n">
+        <v>78512</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>571792</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6697651</v>
+      </c>
+      <c r="S57" t="n">
+        <v>15</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112230605</v>
+      </c>
+      <c r="B58" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>571995</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6697876</v>
+      </c>
+      <c r="S58" t="n">
+        <v>15</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112230603</v>
+      </c>
+      <c r="B59" t="n">
+        <v>78512</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>572018</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6697738</v>
+      </c>
+      <c r="S59" t="n">
+        <v>15</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112230612</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12274</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>102016</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Gropig brunbagge</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Zilora ferruginea</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Paykull, 1798)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>571800</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6697623</v>
+      </c>
+      <c r="S60" t="n">
+        <v>15</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>112230610</v>
+      </c>
+      <c r="B61" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>571853</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6697760</v>
+      </c>
+      <c r="S61" t="n">
+        <v>15</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>112230604</v>
+      </c>
+      <c r="B62" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Nordbäcksbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>571996</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6697876</v>
+      </c>
+      <c r="S62" t="n">
+        <v>15</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 9053-2020.xlsx
+++ b/artfynd/A 9053-2020.xlsx
@@ -6604,10 +6604,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112230608</v>
+        <v>112230603</v>
       </c>
       <c r="B53" t="n">
-        <v>99413</v>
+        <v>78633</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6620,21 +6620,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221235</v>
+        <v>6456</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6644,10 +6644,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>571931</v>
+        <v>572018</v>
       </c>
       <c r="R53" t="n">
-        <v>6697694</v>
+        <v>6697738</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112230611</v>
+        <v>112230614</v>
       </c>
       <c r="B54" t="n">
-        <v>4711</v>
+        <v>78633</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6722,21 +6722,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100299</v>
+        <v>6456</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6746,10 +6746,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>571834</v>
+        <v>571792</v>
       </c>
       <c r="R54" t="n">
-        <v>6697641</v>
+        <v>6697651</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112230613</v>
+        <v>112230611</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>4711</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6820,25 +6820,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>100299</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6848,10 +6848,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>571799</v>
+        <v>571834</v>
       </c>
       <c r="R55" t="n">
-        <v>6697620</v>
+        <v>6697641</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6913,7 +6913,7 @@
         <v>112230606</v>
       </c>
       <c r="B56" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112230614</v>
+        <v>112230604</v>
       </c>
       <c r="B57" t="n">
-        <v>78512</v>
+        <v>102166</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7028,21 +7028,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6456</v>
+        <v>222412</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7052,10 +7052,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571792</v>
+        <v>571996</v>
       </c>
       <c r="R57" t="n">
-        <v>6697651</v>
+        <v>6697876</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -7114,10 +7114,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112230605</v>
+        <v>112230613</v>
       </c>
       <c r="B58" t="n">
-        <v>99413</v>
+        <v>89539</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7126,25 +7126,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221235</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7154,10 +7154,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571995</v>
+        <v>571799</v>
       </c>
       <c r="R58" t="n">
-        <v>6697876</v>
+        <v>6697620</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7216,10 +7216,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112230603</v>
+        <v>112230612</v>
       </c>
       <c r="B59" t="n">
-        <v>78512</v>
+        <v>12274</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7228,38 +7228,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6456</v>
+        <v>102016</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gropig brunbagge</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Zilora ferruginea</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Paykull, 1798)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Nordbäcksbo, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>572018</v>
+        <v>571800</v>
       </c>
       <c r="R59" t="n">
-        <v>6697738</v>
+        <v>6697623</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7300,6 +7309,7 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7318,10 +7328,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112230612</v>
+        <v>112230610</v>
       </c>
       <c r="B60" t="n">
-        <v>12274</v>
+        <v>90466</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7330,47 +7340,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>102016</v>
+        <v>4769</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Gropig brunbagge</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Zilora ferruginea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Paykull, 1798)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Nordbäcksbo, Dlr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>571800</v>
+        <v>571853</v>
       </c>
       <c r="R60" t="n">
-        <v>6697623</v>
+        <v>6697760</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7411,7 +7412,6 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7430,10 +7430,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112230610</v>
+        <v>112230608</v>
       </c>
       <c r="B61" t="n">
-        <v>90332</v>
+        <v>99850</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7446,21 +7446,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7470,10 +7470,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>571853</v>
+        <v>571931</v>
       </c>
       <c r="R61" t="n">
-        <v>6697760</v>
+        <v>6697694</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7532,10 +7532,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112230604</v>
+        <v>112230605</v>
       </c>
       <c r="B62" t="n">
-        <v>101703</v>
+        <v>99850</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7548,21 +7548,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>571996</v>
+        <v>571995</v>
       </c>
       <c r="R62" t="n">
         <v>6697876</v>

--- a/artfynd/A 9053-2020.xlsx
+++ b/artfynd/A 9053-2020.xlsx
@@ -6604,10 +6604,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112230603</v>
+        <v>112230614</v>
       </c>
       <c r="B53" t="n">
-        <v>78633</v>
+        <v>78647</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6644,10 +6644,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>572018</v>
+        <v>571792</v>
       </c>
       <c r="R53" t="n">
-        <v>6697738</v>
+        <v>6697651</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112230614</v>
+        <v>112230603</v>
       </c>
       <c r="B54" t="n">
-        <v>78633</v>
+        <v>78647</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6746,10 +6746,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>571792</v>
+        <v>572018</v>
       </c>
       <c r="R54" t="n">
-        <v>6697651</v>
+        <v>6697738</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112230611</v>
+        <v>112230604</v>
       </c>
       <c r="B55" t="n">
-        <v>4711</v>
+        <v>102192</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6824,21 +6824,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100299</v>
+        <v>222412</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6848,10 +6848,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>571834</v>
+        <v>571996</v>
       </c>
       <c r="R55" t="n">
-        <v>6697641</v>
+        <v>6697876</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112230606</v>
+        <v>112230612</v>
       </c>
       <c r="B56" t="n">
-        <v>56575</v>
+        <v>12274</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6926,34 +6926,43 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>103021</v>
+        <v>102016</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gropig brunbagge</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Zilora ferruginea</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Paykull, 1798)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Nordbäcksbo, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571961</v>
+        <v>571800</v>
       </c>
       <c r="R56" t="n">
-        <v>6697705</v>
+        <v>6697623</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6994,6 +7003,7 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7012,10 +7022,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112230604</v>
+        <v>112230605</v>
       </c>
       <c r="B57" t="n">
-        <v>102166</v>
+        <v>99874</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7028,21 +7038,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7052,7 +7062,7 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571996</v>
+        <v>571995</v>
       </c>
       <c r="R57" t="n">
         <v>6697876</v>
@@ -7114,10 +7124,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112230613</v>
+        <v>112230608</v>
       </c>
       <c r="B58" t="n">
-        <v>89539</v>
+        <v>99874</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7126,25 +7136,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>221235</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7154,10 +7164,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571799</v>
+        <v>571931</v>
       </c>
       <c r="R58" t="n">
-        <v>6697620</v>
+        <v>6697694</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7216,10 +7226,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112230612</v>
+        <v>112230610</v>
       </c>
       <c r="B59" t="n">
-        <v>12274</v>
+        <v>90480</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7228,47 +7238,38 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>102016</v>
+        <v>4769</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gropig brunbagge</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Zilora ferruginea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Paykull, 1798)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Nordbäcksbo, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571800</v>
+        <v>571853</v>
       </c>
       <c r="R59" t="n">
-        <v>6697623</v>
+        <v>6697760</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7309,7 +7310,6 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7328,10 +7328,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112230610</v>
+        <v>112230606</v>
       </c>
       <c r="B60" t="n">
-        <v>90466</v>
+        <v>56575</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7340,25 +7340,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7368,10 +7368,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>571853</v>
+        <v>571961</v>
       </c>
       <c r="R60" t="n">
-        <v>6697760</v>
+        <v>6697705</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7430,10 +7430,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112230608</v>
+        <v>112230611</v>
       </c>
       <c r="B61" t="n">
-        <v>99850</v>
+        <v>4711</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7446,21 +7446,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>221235</v>
+        <v>100299</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7470,10 +7470,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>571931</v>
+        <v>571834</v>
       </c>
       <c r="R61" t="n">
-        <v>6697694</v>
+        <v>6697641</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7532,10 +7532,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112230605</v>
+        <v>112230613</v>
       </c>
       <c r="B62" t="n">
-        <v>99850</v>
+        <v>89553</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7544,25 +7544,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>221235</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7572,10 +7572,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>571995</v>
+        <v>571799</v>
       </c>
       <c r="R62" t="n">
-        <v>6697876</v>
+        <v>6697620</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>

--- a/artfynd/A 9053-2020.xlsx
+++ b/artfynd/A 9053-2020.xlsx
@@ -6604,7 +6604,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112230614</v>
+        <v>112230603</v>
       </c>
       <c r="B53" t="n">
         <v>78647</v>
@@ -6644,10 +6644,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>571792</v>
+        <v>572018</v>
       </c>
       <c r="R53" t="n">
-        <v>6697651</v>
+        <v>6697738</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112230603</v>
+        <v>112230610</v>
       </c>
       <c r="B54" t="n">
-        <v>78647</v>
+        <v>90480</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6722,21 +6722,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6456</v>
+        <v>4769</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6746,10 +6746,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>572018</v>
+        <v>571853</v>
       </c>
       <c r="R54" t="n">
-        <v>6697738</v>
+        <v>6697760</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112230604</v>
+        <v>112230614</v>
       </c>
       <c r="B55" t="n">
-        <v>102192</v>
+        <v>78647</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6824,21 +6824,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222412</v>
+        <v>6456</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6848,10 +6848,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>571996</v>
+        <v>571792</v>
       </c>
       <c r="R55" t="n">
-        <v>6697876</v>
+        <v>6697651</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112230612</v>
+        <v>112230608</v>
       </c>
       <c r="B56" t="n">
-        <v>12274</v>
+        <v>99874</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6922,47 +6922,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>102016</v>
+        <v>221235</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gropig brunbagge</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Zilora ferruginea</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Paykull, 1798)</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>larv/nymf</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Nordbäcksbo, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>571800</v>
+        <v>571931</v>
       </c>
       <c r="R56" t="n">
-        <v>6697623</v>
+        <v>6697694</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -7003,7 +6994,6 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7022,10 +7012,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112230605</v>
+        <v>112230613</v>
       </c>
       <c r="B57" t="n">
-        <v>99874</v>
+        <v>89553</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7034,25 +7024,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>221235</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7062,10 +7052,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>571995</v>
+        <v>571799</v>
       </c>
       <c r="R57" t="n">
-        <v>6697876</v>
+        <v>6697620</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -7124,10 +7114,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112230608</v>
+        <v>112230606</v>
       </c>
       <c r="B58" t="n">
-        <v>99874</v>
+        <v>56575</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7136,25 +7126,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221235</v>
+        <v>103021</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7164,10 +7154,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>571931</v>
+        <v>571961</v>
       </c>
       <c r="R58" t="n">
-        <v>6697694</v>
+        <v>6697705</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7226,10 +7216,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112230610</v>
+        <v>112230604</v>
       </c>
       <c r="B59" t="n">
-        <v>90480</v>
+        <v>102192</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7242,21 +7232,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7266,10 +7256,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>571853</v>
+        <v>571996</v>
       </c>
       <c r="R59" t="n">
-        <v>6697760</v>
+        <v>6697876</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7328,10 +7318,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112230606</v>
+        <v>112230611</v>
       </c>
       <c r="B60" t="n">
-        <v>56575</v>
+        <v>4711</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7340,25 +7330,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>103021</v>
+        <v>100299</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7368,10 +7358,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>571961</v>
+        <v>571834</v>
       </c>
       <c r="R60" t="n">
-        <v>6697705</v>
+        <v>6697641</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7430,10 +7420,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112230611</v>
+        <v>112230605</v>
       </c>
       <c r="B61" t="n">
-        <v>4711</v>
+        <v>99874</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7446,21 +7436,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100299</v>
+        <v>221235</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7470,10 +7460,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>571834</v>
+        <v>571995</v>
       </c>
       <c r="R61" t="n">
-        <v>6697641</v>
+        <v>6697876</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7532,10 +7522,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112230613</v>
+        <v>112230612</v>
       </c>
       <c r="B62" t="n">
-        <v>89553</v>
+        <v>12274</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7548,34 +7538,43 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>102016</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gropig brunbagge</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Zilora ferruginea</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Paykull, 1798)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>larv/nymf</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Nordbäcksbo, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>571799</v>
+        <v>571800</v>
       </c>
       <c r="R62" t="n">
-        <v>6697620</v>
+        <v>6697623</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7616,6 +7615,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
